--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10101_ログイン.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10101_ログイン.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="825" windowWidth="25185" windowHeight="10830" tabRatio="445"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19200" windowHeight="16440" tabRatio="445"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="406">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -249,61 +249,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サブシステム名：</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名：</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取引名：</t>
-    <rPh sb="0" eb="3">
-      <t>トリヒキメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストターゲット名：</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者：</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日：</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施日</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2493,19 +2444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バリエーション通して、正しいエラー内容に出力されていること。</t>
-    <rPh sb="7" eb="8">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2712,36 +2650,492 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成日：2019/9/28</t>
+    <t>1.0版</t>
+  </si>
+  <si>
+    <t>新規</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>(新規作成)</t>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルプロジェクト</t>
+  </si>
+  <si>
+    <t>サンプルシステム</t>
+  </si>
+  <si>
+    <t>プロジェクト管理システム</t>
+  </si>
+  <si>
+    <t>システム機能設計書「画面レイアウト」の業務機能部分に合致する。</t>
+    <rPh sb="19" eb="21">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面のフッター領域を確認する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッター領域が存在する。</t>
+    <rPh sb="4" eb="6">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世古</t>
+    <rPh sb="0" eb="2">
+      <t>セコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書通りであることを確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面の業務機能領域がシステム機能設計書通りであることを確認する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面の横スクロールバーがUI標準通りであることを確認する。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面の縦スクロールバーがUI標準通りであることを確認する。</t>
+    <rPh sb="7" eb="8">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズが小さい場合にも表示されない。</t>
+    <rPh sb="4" eb="5">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズが小さい場合は表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(上記項目と併せてテスト)</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書に記載されたドメインに従ったエラーメッセージが表示される。</t>
+    <rPh sb="4" eb="9">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書に記載どおりのエラーメッセージが表示される。</t>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>16-2-1と併せてまとめてテストする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+システム機能設計書「2.6.2.ログインイベント　(3)　表示処理」に記載どおりのバリデーションが行われることを確認する。
+・(a)アカウント存在チェック
+　　存在いないログインIDを入力
+・(b)アカウント有効期限チェック
+　　system_account.password_expiration_dateがテスト日より前のレコードを作成。。そのレコードを使用してテスト
+・(c)認証失敗回数チェック
+　　テストデータを操作し認証失敗回数が4であるログインIDを作成。そのログインIDを使用してテスト
+・(d)パスワード認証
+　　誤ったパスワードを入力。</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="295" eb="296">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>17-2-1とまとめてテストする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+以下の入力を行い、エラーメッセージの表示位置が、システム機能設計書通りであることを確認する。
+・ログインID：空文字列
+・パスワード：空文字列
+</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目の入力を促すエラーメッセージが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>17-2-1とまとめてテストする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+以下の入力を行い、エラーメッセージの表示位置が、システム機能設計書通りであることを確認する。
+・ログインID：abc
+・パスワード：45文字以上の文字列</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリエーション通して、正しいエラー内容が出力されていること。</t>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(上記と併せてテスト)
+</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3-1と併せてテスト</t>
+    <rPh sb="6" eb="7">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3-1、3-3-2と併せてテスト</t>
+    <rPh sb="12" eb="13">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">システム機能設計書通りであることを確認する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の項目について、システム機能設計書通りに編集されることを確認する。
+・パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書「画面項目定義」に合致する</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：2019/9/29</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.0版</t>
-  </si>
-  <si>
-    <t>新規</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>(新規作成)</t>
-  </si>
-  <si>
-    <t>TIS</t>
+    <t>サブシステム名：プロジェクト管理システム</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：ログイン</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引名：ログイン</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストターゲット名：ログイン画面</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-  </si>
-  <si>
-    <t>サンプルシステム</t>
-  </si>
-  <si>
-    <t>プロジェクト管理システム</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2753,7 +3147,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -2873,6 +3267,14 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4065,7 +4467,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -4499,9 +4901,372 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4538,461 +5303,110 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5463,7 +5877,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト管理システム</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -5827,7 +6241,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -5839,12 +6253,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="155">
+      <c r="I25" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43736</v>
-      </c>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
+        <v>43737</v>
+      </c>
+      <c r="J25" s="240"/>
+      <c r="K25" s="240"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -6400,57 +6814,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="191" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="197" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="206" t="s">
-        <v>169</v>
-      </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="188" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="215" t="str">
+      <c r="A1" s="247" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="250" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="256" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="265" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="247" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="274" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="216"/>
-      <c r="AF1" s="217"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="241">
         <f>IF(D8="","",D8)</f>
-        <v>43736</v>
-      </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+        <v>43737</v>
+      </c>
+      <c r="AH1" s="242"/>
+      <c r="AI1" s="243"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6458,53 +6872,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="191" t="s">
-        <v>383</v>
-      </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="188" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB2" s="190"/>
-      <c r="AC2" s="194" t="str">
+      <c r="A2" s="247" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="250" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="261"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="247" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="253" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="254"/>
+      <c r="AE2" s="254"/>
+      <c r="AF2" s="255"/>
+      <c r="AG2" s="241" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="242"/>
+      <c r="AI2" s="243"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6512,45 +6926,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="188" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="191" t="s">
-        <v>384</v>
-      </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="188"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="216"/>
-      <c r="AE3" s="216"/>
-      <c r="AF3" s="217"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="A3" s="247" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="250" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="263"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="274"/>
+      <c r="AD3" s="275"/>
+      <c r="AE3" s="275"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="241"/>
+      <c r="AH3" s="242"/>
+      <c r="AI3" s="243"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6559,7 +6973,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -6585,1036 +6999,1192 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="185" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="185" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="244" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="245"/>
+      <c r="D7" s="244" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="246"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="185" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="185" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="187"/>
-      <c r="AI7" s="186"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="244" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="246"/>
+      <c r="L7" s="246"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="246"/>
+      <c r="P7" s="245"/>
+      <c r="Q7" s="244" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="246"/>
+      <c r="S7" s="246"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="246"/>
+      <c r="V7" s="246"/>
+      <c r="W7" s="246"/>
+      <c r="X7" s="246"/>
+      <c r="Y7" s="246"/>
+      <c r="Z7" s="246"/>
+      <c r="AA7" s="246"/>
+      <c r="AB7" s="246"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="246"/>
+      <c r="AE7" s="245"/>
+      <c r="AF7" s="244" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG7" s="246"/>
+      <c r="AH7" s="246"/>
+      <c r="AI7" s="245"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="169" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="171">
-        <v>43736</v>
-      </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="174" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="175"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="176" t="s">
-        <v>379</v>
-      </c>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="179" t="s">
-        <v>380</v>
-      </c>
-      <c r="R8" s="180"/>
-      <c r="S8" s="180"/>
-      <c r="T8" s="180"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="180"/>
-      <c r="W8" s="180"/>
-      <c r="X8" s="180"/>
-      <c r="Y8" s="180"/>
-      <c r="Z8" s="180"/>
-      <c r="AA8" s="180"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="180"/>
-      <c r="AD8" s="180"/>
-      <c r="AE8" s="181"/>
-      <c r="AF8" s="176" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG8" s="177"/>
-      <c r="AH8" s="177"/>
-      <c r="AI8" s="178"/>
+      <c r="B8" s="289" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="290"/>
+      <c r="D8" s="291">
+        <v>43737</v>
+      </c>
+      <c r="E8" s="292"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="294" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="295"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="296" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="297"/>
+      <c r="L8" s="297"/>
+      <c r="M8" s="297"/>
+      <c r="N8" s="297"/>
+      <c r="O8" s="297"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="299" t="s">
+        <v>371</v>
+      </c>
+      <c r="R8" s="300"/>
+      <c r="S8" s="300"/>
+      <c r="T8" s="300"/>
+      <c r="U8" s="300"/>
+      <c r="V8" s="300"/>
+      <c r="W8" s="300"/>
+      <c r="X8" s="300"/>
+      <c r="Y8" s="300"/>
+      <c r="Z8" s="300"/>
+      <c r="AA8" s="300"/>
+      <c r="AB8" s="300"/>
+      <c r="AC8" s="300"/>
+      <c r="AD8" s="300"/>
+      <c r="AE8" s="301"/>
+      <c r="AF8" s="296" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG8" s="297"/>
+      <c r="AH8" s="297"/>
+      <c r="AI8" s="298"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="164"/>
+      <c r="B9" s="277"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="283"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="284"/>
+      <c r="P9" s="285"/>
+      <c r="Q9" s="286"/>
+      <c r="R9" s="287"/>
+      <c r="S9" s="287"/>
+      <c r="T9" s="287"/>
+      <c r="U9" s="287"/>
+      <c r="V9" s="287"/>
+      <c r="W9" s="287"/>
+      <c r="X9" s="287"/>
+      <c r="Y9" s="287"/>
+      <c r="Z9" s="287"/>
+      <c r="AA9" s="287"/>
+      <c r="AB9" s="287"/>
+      <c r="AC9" s="287"/>
+      <c r="AD9" s="287"/>
+      <c r="AE9" s="288"/>
+      <c r="AF9" s="283"/>
+      <c r="AG9" s="284"/>
+      <c r="AH9" s="284"/>
+      <c r="AI9" s="285"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="164"/>
+      <c r="B10" s="277"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="283"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="284"/>
+      <c r="M10" s="284"/>
+      <c r="N10" s="284"/>
+      <c r="O10" s="284"/>
+      <c r="P10" s="285"/>
+      <c r="Q10" s="286"/>
+      <c r="R10" s="287"/>
+      <c r="S10" s="287"/>
+      <c r="T10" s="287"/>
+      <c r="U10" s="287"/>
+      <c r="V10" s="287"/>
+      <c r="W10" s="287"/>
+      <c r="X10" s="287"/>
+      <c r="Y10" s="287"/>
+      <c r="Z10" s="287"/>
+      <c r="AA10" s="287"/>
+      <c r="AB10" s="287"/>
+      <c r="AC10" s="287"/>
+      <c r="AD10" s="287"/>
+      <c r="AE10" s="288"/>
+      <c r="AF10" s="283"/>
+      <c r="AG10" s="284"/>
+      <c r="AH10" s="284"/>
+      <c r="AI10" s="285"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="163"/>
-      <c r="AI11" s="164"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="280"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="278"/>
+      <c r="J11" s="283"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="284"/>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="287"/>
+      <c r="S11" s="287"/>
+      <c r="T11" s="287"/>
+      <c r="U11" s="287"/>
+      <c r="V11" s="287"/>
+      <c r="W11" s="287"/>
+      <c r="X11" s="287"/>
+      <c r="Y11" s="287"/>
+      <c r="Z11" s="287"/>
+      <c r="AA11" s="287"/>
+      <c r="AB11" s="287"/>
+      <c r="AC11" s="287"/>
+      <c r="AD11" s="287"/>
+      <c r="AE11" s="288"/>
+      <c r="AF11" s="283"/>
+      <c r="AG11" s="284"/>
+      <c r="AH11" s="284"/>
+      <c r="AI11" s="285"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="167"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="164"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="280"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="282"/>
+      <c r="I12" s="278"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="284"/>
+      <c r="P12" s="285"/>
+      <c r="Q12" s="286"/>
+      <c r="R12" s="287"/>
+      <c r="S12" s="287"/>
+      <c r="T12" s="287"/>
+      <c r="U12" s="287"/>
+      <c r="V12" s="287"/>
+      <c r="W12" s="287"/>
+      <c r="X12" s="287"/>
+      <c r="Y12" s="287"/>
+      <c r="Z12" s="287"/>
+      <c r="AA12" s="287"/>
+      <c r="AB12" s="287"/>
+      <c r="AC12" s="287"/>
+      <c r="AD12" s="287"/>
+      <c r="AE12" s="288"/>
+      <c r="AF12" s="283"/>
+      <c r="AG12" s="284"/>
+      <c r="AH12" s="284"/>
+      <c r="AI12" s="285"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="163"/>
-      <c r="AI13" s="164"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="281"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="278"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="284"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="284"/>
+      <c r="N13" s="284"/>
+      <c r="O13" s="284"/>
+      <c r="P13" s="285"/>
+      <c r="Q13" s="286"/>
+      <c r="R13" s="287"/>
+      <c r="S13" s="287"/>
+      <c r="T13" s="287"/>
+      <c r="U13" s="287"/>
+      <c r="V13" s="287"/>
+      <c r="W13" s="287"/>
+      <c r="X13" s="287"/>
+      <c r="Y13" s="287"/>
+      <c r="Z13" s="287"/>
+      <c r="AA13" s="287"/>
+      <c r="AB13" s="287"/>
+      <c r="AC13" s="287"/>
+      <c r="AD13" s="287"/>
+      <c r="AE13" s="288"/>
+      <c r="AF13" s="283"/>
+      <c r="AG13" s="284"/>
+      <c r="AH13" s="284"/>
+      <c r="AI13" s="285"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="166"/>
-      <c r="AC14" s="166"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="164"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="278"/>
+      <c r="J14" s="283"/>
+      <c r="K14" s="284"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="284"/>
+      <c r="N14" s="284"/>
+      <c r="O14" s="284"/>
+      <c r="P14" s="285"/>
+      <c r="Q14" s="286"/>
+      <c r="R14" s="287"/>
+      <c r="S14" s="287"/>
+      <c r="T14" s="287"/>
+      <c r="U14" s="287"/>
+      <c r="V14" s="287"/>
+      <c r="W14" s="287"/>
+      <c r="X14" s="287"/>
+      <c r="Y14" s="287"/>
+      <c r="Z14" s="287"/>
+      <c r="AA14" s="287"/>
+      <c r="AB14" s="287"/>
+      <c r="AC14" s="287"/>
+      <c r="AD14" s="287"/>
+      <c r="AE14" s="288"/>
+      <c r="AF14" s="283"/>
+      <c r="AG14" s="284"/>
+      <c r="AH14" s="284"/>
+      <c r="AI14" s="285"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="164"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="278"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="284"/>
+      <c r="O15" s="284"/>
+      <c r="P15" s="285"/>
+      <c r="Q15" s="286"/>
+      <c r="R15" s="287"/>
+      <c r="S15" s="287"/>
+      <c r="T15" s="287"/>
+      <c r="U15" s="287"/>
+      <c r="V15" s="287"/>
+      <c r="W15" s="287"/>
+      <c r="X15" s="287"/>
+      <c r="Y15" s="287"/>
+      <c r="Z15" s="287"/>
+      <c r="AA15" s="287"/>
+      <c r="AB15" s="287"/>
+      <c r="AC15" s="287"/>
+      <c r="AD15" s="287"/>
+      <c r="AE15" s="288"/>
+      <c r="AF15" s="283"/>
+      <c r="AG15" s="284"/>
+      <c r="AH15" s="284"/>
+      <c r="AI15" s="285"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="164"/>
+      <c r="B16" s="277"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="278"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="284"/>
+      <c r="P16" s="285"/>
+      <c r="Q16" s="286"/>
+      <c r="R16" s="287"/>
+      <c r="S16" s="287"/>
+      <c r="T16" s="287"/>
+      <c r="U16" s="287"/>
+      <c r="V16" s="287"/>
+      <c r="W16" s="287"/>
+      <c r="X16" s="287"/>
+      <c r="Y16" s="287"/>
+      <c r="Z16" s="287"/>
+      <c r="AA16" s="287"/>
+      <c r="AB16" s="287"/>
+      <c r="AC16" s="287"/>
+      <c r="AD16" s="287"/>
+      <c r="AE16" s="288"/>
+      <c r="AF16" s="283"/>
+      <c r="AG16" s="284"/>
+      <c r="AH16" s="284"/>
+      <c r="AI16" s="285"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="166"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="164"/>
+      <c r="B17" s="277"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="278"/>
+      <c r="J17" s="283"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="284"/>
+      <c r="M17" s="284"/>
+      <c r="N17" s="284"/>
+      <c r="O17" s="284"/>
+      <c r="P17" s="285"/>
+      <c r="Q17" s="286"/>
+      <c r="R17" s="287"/>
+      <c r="S17" s="287"/>
+      <c r="T17" s="287"/>
+      <c r="U17" s="287"/>
+      <c r="V17" s="287"/>
+      <c r="W17" s="287"/>
+      <c r="X17" s="287"/>
+      <c r="Y17" s="287"/>
+      <c r="Z17" s="287"/>
+      <c r="AA17" s="287"/>
+      <c r="AB17" s="287"/>
+      <c r="AC17" s="287"/>
+      <c r="AD17" s="287"/>
+      <c r="AE17" s="288"/>
+      <c r="AF17" s="283"/>
+      <c r="AG17" s="284"/>
+      <c r="AH17" s="284"/>
+      <c r="AI17" s="285"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="164"/>
+      <c r="B18" s="277"/>
+      <c r="C18" s="278"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="281"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="282"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="283"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="284"/>
+      <c r="N18" s="284"/>
+      <c r="O18" s="284"/>
+      <c r="P18" s="285"/>
+      <c r="Q18" s="286"/>
+      <c r="R18" s="287"/>
+      <c r="S18" s="287"/>
+      <c r="T18" s="287"/>
+      <c r="U18" s="287"/>
+      <c r="V18" s="287"/>
+      <c r="W18" s="287"/>
+      <c r="X18" s="287"/>
+      <c r="Y18" s="287"/>
+      <c r="Z18" s="287"/>
+      <c r="AA18" s="287"/>
+      <c r="AB18" s="287"/>
+      <c r="AC18" s="287"/>
+      <c r="AD18" s="287"/>
+      <c r="AE18" s="288"/>
+      <c r="AF18" s="283"/>
+      <c r="AG18" s="284"/>
+      <c r="AH18" s="284"/>
+      <c r="AI18" s="285"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="166"/>
-      <c r="AC19" s="166"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="167"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="163"/>
-      <c r="AI19" s="164"/>
+      <c r="B19" s="277"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="281"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
+      <c r="O19" s="284"/>
+      <c r="P19" s="285"/>
+      <c r="Q19" s="286"/>
+      <c r="R19" s="287"/>
+      <c r="S19" s="287"/>
+      <c r="T19" s="287"/>
+      <c r="U19" s="287"/>
+      <c r="V19" s="287"/>
+      <c r="W19" s="287"/>
+      <c r="X19" s="287"/>
+      <c r="Y19" s="287"/>
+      <c r="Z19" s="287"/>
+      <c r="AA19" s="287"/>
+      <c r="AB19" s="287"/>
+      <c r="AC19" s="287"/>
+      <c r="AD19" s="287"/>
+      <c r="AE19" s="288"/>
+      <c r="AF19" s="283"/>
+      <c r="AG19" s="284"/>
+      <c r="AH19" s="284"/>
+      <c r="AI19" s="285"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="166"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="163"/>
-      <c r="AH20" s="163"/>
-      <c r="AI20" s="164"/>
+      <c r="B20" s="277"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="279"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="281"/>
+      <c r="G20" s="277"/>
+      <c r="H20" s="282"/>
+      <c r="I20" s="278"/>
+      <c r="J20" s="283"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="284"/>
+      <c r="P20" s="285"/>
+      <c r="Q20" s="286"/>
+      <c r="R20" s="287"/>
+      <c r="S20" s="287"/>
+      <c r="T20" s="287"/>
+      <c r="U20" s="287"/>
+      <c r="V20" s="287"/>
+      <c r="W20" s="287"/>
+      <c r="X20" s="287"/>
+      <c r="Y20" s="287"/>
+      <c r="Z20" s="287"/>
+      <c r="AA20" s="287"/>
+      <c r="AB20" s="287"/>
+      <c r="AC20" s="287"/>
+      <c r="AD20" s="287"/>
+      <c r="AE20" s="288"/>
+      <c r="AF20" s="283"/>
+      <c r="AG20" s="284"/>
+      <c r="AH20" s="284"/>
+      <c r="AI20" s="285"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="167"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="163"/>
-      <c r="AH21" s="163"/>
-      <c r="AI21" s="164"/>
+      <c r="B21" s="277"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="282"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="284"/>
+      <c r="N21" s="284"/>
+      <c r="O21" s="284"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="286"/>
+      <c r="R21" s="287"/>
+      <c r="S21" s="287"/>
+      <c r="T21" s="287"/>
+      <c r="U21" s="287"/>
+      <c r="V21" s="287"/>
+      <c r="W21" s="287"/>
+      <c r="X21" s="287"/>
+      <c r="Y21" s="287"/>
+      <c r="Z21" s="287"/>
+      <c r="AA21" s="287"/>
+      <c r="AB21" s="287"/>
+      <c r="AC21" s="287"/>
+      <c r="AD21" s="287"/>
+      <c r="AE21" s="288"/>
+      <c r="AF21" s="283"/>
+      <c r="AG21" s="284"/>
+      <c r="AH21" s="284"/>
+      <c r="AI21" s="285"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="167"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="163"/>
-      <c r="AH22" s="163"/>
-      <c r="AI22" s="164"/>
+      <c r="B22" s="277"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="281"/>
+      <c r="G22" s="277"/>
+      <c r="H22" s="282"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="283"/>
+      <c r="K22" s="284"/>
+      <c r="L22" s="284"/>
+      <c r="M22" s="284"/>
+      <c r="N22" s="284"/>
+      <c r="O22" s="284"/>
+      <c r="P22" s="285"/>
+      <c r="Q22" s="286"/>
+      <c r="R22" s="287"/>
+      <c r="S22" s="287"/>
+      <c r="T22" s="287"/>
+      <c r="U22" s="287"/>
+      <c r="V22" s="287"/>
+      <c r="W22" s="287"/>
+      <c r="X22" s="287"/>
+      <c r="Y22" s="287"/>
+      <c r="Z22" s="287"/>
+      <c r="AA22" s="287"/>
+      <c r="AB22" s="287"/>
+      <c r="AC22" s="287"/>
+      <c r="AD22" s="287"/>
+      <c r="AE22" s="288"/>
+      <c r="AF22" s="283"/>
+      <c r="AG22" s="284"/>
+      <c r="AH22" s="284"/>
+      <c r="AI22" s="285"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="166"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="167"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="163"/>
-      <c r="AH23" s="163"/>
-      <c r="AI23" s="164"/>
+      <c r="B23" s="277"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="279"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="277"/>
+      <c r="H23" s="282"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="283"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284"/>
+      <c r="O23" s="284"/>
+      <c r="P23" s="285"/>
+      <c r="Q23" s="286"/>
+      <c r="R23" s="287"/>
+      <c r="S23" s="287"/>
+      <c r="T23" s="287"/>
+      <c r="U23" s="287"/>
+      <c r="V23" s="287"/>
+      <c r="W23" s="287"/>
+      <c r="X23" s="287"/>
+      <c r="Y23" s="287"/>
+      <c r="Z23" s="287"/>
+      <c r="AA23" s="287"/>
+      <c r="AB23" s="287"/>
+      <c r="AC23" s="287"/>
+      <c r="AD23" s="287"/>
+      <c r="AE23" s="288"/>
+      <c r="AF23" s="283"/>
+      <c r="AG23" s="284"/>
+      <c r="AH23" s="284"/>
+      <c r="AI23" s="285"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="166"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="167"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="163"/>
-      <c r="AH24" s="163"/>
-      <c r="AI24" s="164"/>
+      <c r="B24" s="277"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="281"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="282"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="283"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="284"/>
+      <c r="O24" s="284"/>
+      <c r="P24" s="285"/>
+      <c r="Q24" s="286"/>
+      <c r="R24" s="287"/>
+      <c r="S24" s="287"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="287"/>
+      <c r="V24" s="287"/>
+      <c r="W24" s="287"/>
+      <c r="X24" s="287"/>
+      <c r="Y24" s="287"/>
+      <c r="Z24" s="287"/>
+      <c r="AA24" s="287"/>
+      <c r="AB24" s="287"/>
+      <c r="AC24" s="287"/>
+      <c r="AD24" s="287"/>
+      <c r="AE24" s="288"/>
+      <c r="AF24" s="283"/>
+      <c r="AG24" s="284"/>
+      <c r="AH24" s="284"/>
+      <c r="AI24" s="285"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="166"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="167"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="163"/>
-      <c r="AH25" s="163"/>
-      <c r="AI25" s="164"/>
+      <c r="B25" s="277"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="277"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="283"/>
+      <c r="K25" s="284"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="284"/>
+      <c r="N25" s="284"/>
+      <c r="O25" s="284"/>
+      <c r="P25" s="285"/>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="287"/>
+      <c r="S25" s="287"/>
+      <c r="T25" s="287"/>
+      <c r="U25" s="287"/>
+      <c r="V25" s="287"/>
+      <c r="W25" s="287"/>
+      <c r="X25" s="287"/>
+      <c r="Y25" s="287"/>
+      <c r="Z25" s="287"/>
+      <c r="AA25" s="287"/>
+      <c r="AB25" s="287"/>
+      <c r="AC25" s="287"/>
+      <c r="AD25" s="287"/>
+      <c r="AE25" s="288"/>
+      <c r="AF25" s="283"/>
+      <c r="AG25" s="284"/>
+      <c r="AH25" s="284"/>
+      <c r="AI25" s="285"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="166"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="167"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="163"/>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="164"/>
+      <c r="B26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="281"/>
+      <c r="G26" s="277"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="278"/>
+      <c r="J26" s="283"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="284"/>
+      <c r="O26" s="284"/>
+      <c r="P26" s="285"/>
+      <c r="Q26" s="286"/>
+      <c r="R26" s="287"/>
+      <c r="S26" s="287"/>
+      <c r="T26" s="287"/>
+      <c r="U26" s="287"/>
+      <c r="V26" s="287"/>
+      <c r="W26" s="287"/>
+      <c r="X26" s="287"/>
+      <c r="Y26" s="287"/>
+      <c r="Z26" s="287"/>
+      <c r="AA26" s="287"/>
+      <c r="AB26" s="287"/>
+      <c r="AC26" s="287"/>
+      <c r="AD26" s="287"/>
+      <c r="AE26" s="288"/>
+      <c r="AF26" s="283"/>
+      <c r="AG26" s="284"/>
+      <c r="AH26" s="284"/>
+      <c r="AI26" s="285"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="166"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="167"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="164"/>
+      <c r="B27" s="277"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="277"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="283"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="284"/>
+      <c r="P27" s="285"/>
+      <c r="Q27" s="286"/>
+      <c r="R27" s="287"/>
+      <c r="S27" s="287"/>
+      <c r="T27" s="287"/>
+      <c r="U27" s="287"/>
+      <c r="V27" s="287"/>
+      <c r="W27" s="287"/>
+      <c r="X27" s="287"/>
+      <c r="Y27" s="287"/>
+      <c r="Z27" s="287"/>
+      <c r="AA27" s="287"/>
+      <c r="AB27" s="287"/>
+      <c r="AC27" s="287"/>
+      <c r="AD27" s="287"/>
+      <c r="AE27" s="288"/>
+      <c r="AF27" s="283"/>
+      <c r="AG27" s="284"/>
+      <c r="AH27" s="284"/>
+      <c r="AI27" s="285"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="163"/>
-      <c r="AH28" s="163"/>
-      <c r="AI28" s="164"/>
+      <c r="B28" s="277"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="279"/>
+      <c r="E28" s="280"/>
+      <c r="F28" s="281"/>
+      <c r="G28" s="277"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="278"/>
+      <c r="J28" s="283"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="284"/>
+      <c r="M28" s="284"/>
+      <c r="N28" s="284"/>
+      <c r="O28" s="284"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="287"/>
+      <c r="S28" s="287"/>
+      <c r="T28" s="287"/>
+      <c r="U28" s="287"/>
+      <c r="V28" s="287"/>
+      <c r="W28" s="287"/>
+      <c r="X28" s="287"/>
+      <c r="Y28" s="287"/>
+      <c r="Z28" s="287"/>
+      <c r="AA28" s="287"/>
+      <c r="AB28" s="287"/>
+      <c r="AC28" s="287"/>
+      <c r="AD28" s="287"/>
+      <c r="AE28" s="288"/>
+      <c r="AF28" s="283"/>
+      <c r="AG28" s="284"/>
+      <c r="AH28" s="284"/>
+      <c r="AI28" s="285"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="167"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="163"/>
-      <c r="AH29" s="163"/>
-      <c r="AI29" s="164"/>
+      <c r="B29" s="277"/>
+      <c r="C29" s="278"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="281"/>
+      <c r="G29" s="277"/>
+      <c r="H29" s="282"/>
+      <c r="I29" s="278"/>
+      <c r="J29" s="283"/>
+      <c r="K29" s="284"/>
+      <c r="L29" s="284"/>
+      <c r="M29" s="284"/>
+      <c r="N29" s="284"/>
+      <c r="O29" s="284"/>
+      <c r="P29" s="285"/>
+      <c r="Q29" s="286"/>
+      <c r="R29" s="287"/>
+      <c r="S29" s="287"/>
+      <c r="T29" s="287"/>
+      <c r="U29" s="287"/>
+      <c r="V29" s="287"/>
+      <c r="W29" s="287"/>
+      <c r="X29" s="287"/>
+      <c r="Y29" s="287"/>
+      <c r="Z29" s="287"/>
+      <c r="AA29" s="287"/>
+      <c r="AB29" s="287"/>
+      <c r="AC29" s="287"/>
+      <c r="AD29" s="287"/>
+      <c r="AE29" s="288"/>
+      <c r="AF29" s="283"/>
+      <c r="AG29" s="284"/>
+      <c r="AH29" s="284"/>
+      <c r="AI29" s="285"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="166"/>
-      <c r="AC30" s="166"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="167"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="163"/>
-      <c r="AH30" s="163"/>
-      <c r="AI30" s="164"/>
+      <c r="B30" s="277"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="280"/>
+      <c r="F30" s="281"/>
+      <c r="G30" s="277"/>
+      <c r="H30" s="282"/>
+      <c r="I30" s="278"/>
+      <c r="J30" s="283"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="284"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="284"/>
+      <c r="O30" s="284"/>
+      <c r="P30" s="285"/>
+      <c r="Q30" s="286"/>
+      <c r="R30" s="287"/>
+      <c r="S30" s="287"/>
+      <c r="T30" s="287"/>
+      <c r="U30" s="287"/>
+      <c r="V30" s="287"/>
+      <c r="W30" s="287"/>
+      <c r="X30" s="287"/>
+      <c r="Y30" s="287"/>
+      <c r="Z30" s="287"/>
+      <c r="AA30" s="287"/>
+      <c r="AB30" s="287"/>
+      <c r="AC30" s="287"/>
+      <c r="AD30" s="287"/>
+      <c r="AE30" s="288"/>
+      <c r="AF30" s="283"/>
+      <c r="AG30" s="284"/>
+      <c r="AH30" s="284"/>
+      <c r="AI30" s="285"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="167"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="163"/>
-      <c r="AH31" s="163"/>
-      <c r="AI31" s="164"/>
+      <c r="B31" s="277"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="277"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="278"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="284"/>
+      <c r="L31" s="284"/>
+      <c r="M31" s="284"/>
+      <c r="N31" s="284"/>
+      <c r="O31" s="284"/>
+      <c r="P31" s="285"/>
+      <c r="Q31" s="286"/>
+      <c r="R31" s="287"/>
+      <c r="S31" s="287"/>
+      <c r="T31" s="287"/>
+      <c r="U31" s="287"/>
+      <c r="V31" s="287"/>
+      <c r="W31" s="287"/>
+      <c r="X31" s="287"/>
+      <c r="Y31" s="287"/>
+      <c r="Z31" s="287"/>
+      <c r="AA31" s="287"/>
+      <c r="AB31" s="287"/>
+      <c r="AC31" s="287"/>
+      <c r="AD31" s="287"/>
+      <c r="AE31" s="288"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="284"/>
+      <c r="AH31" s="284"/>
+      <c r="AI31" s="285"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="167"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="163"/>
-      <c r="AH32" s="163"/>
-      <c r="AI32" s="164"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="282"/>
+      <c r="I32" s="278"/>
+      <c r="J32" s="283"/>
+      <c r="K32" s="302"/>
+      <c r="L32" s="284"/>
+      <c r="M32" s="284"/>
+      <c r="N32" s="284"/>
+      <c r="O32" s="284"/>
+      <c r="P32" s="285"/>
+      <c r="Q32" s="286"/>
+      <c r="R32" s="287"/>
+      <c r="S32" s="287"/>
+      <c r="T32" s="287"/>
+      <c r="U32" s="287"/>
+      <c r="V32" s="287"/>
+      <c r="W32" s="287"/>
+      <c r="X32" s="287"/>
+      <c r="Y32" s="287"/>
+      <c r="Z32" s="287"/>
+      <c r="AA32" s="287"/>
+      <c r="AB32" s="287"/>
+      <c r="AC32" s="287"/>
+      <c r="AD32" s="287"/>
+      <c r="AE32" s="288"/>
+      <c r="AF32" s="283"/>
+      <c r="AG32" s="284"/>
+      <c r="AH32" s="284"/>
+      <c r="AI32" s="285"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="163"/>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="164"/>
+      <c r="B33" s="277"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="277"/>
+      <c r="H33" s="282"/>
+      <c r="I33" s="278"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="284"/>
+      <c r="L33" s="284"/>
+      <c r="M33" s="284"/>
+      <c r="N33" s="284"/>
+      <c r="O33" s="284"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="286"/>
+      <c r="R33" s="287"/>
+      <c r="S33" s="287"/>
+      <c r="T33" s="287"/>
+      <c r="U33" s="287"/>
+      <c r="V33" s="287"/>
+      <c r="W33" s="287"/>
+      <c r="X33" s="287"/>
+      <c r="Y33" s="287"/>
+      <c r="Z33" s="287"/>
+      <c r="AA33" s="287"/>
+      <c r="AB33" s="287"/>
+      <c r="AC33" s="287"/>
+      <c r="AD33" s="287"/>
+      <c r="AE33" s="288"/>
+      <c r="AF33" s="283"/>
+      <c r="AG33" s="284"/>
+      <c r="AH33" s="284"/>
+      <c r="AI33" s="285"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -7638,162 +8208,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7831,30 +8245,30 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>24</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -7862,10 +8276,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -7873,7 +8287,7 @@
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -7899,7 +8313,7 @@
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="39" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -7911,13 +8325,13 @@
         <v>11</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F10" s="112" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G10" s="118" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H10" s="110" t="s">
         <v>12</v>
@@ -7955,267 +8369,297 @@
     </row>
     <row r="11" spans="1:18" ht="23.1" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="111"/>
       <c r="F11" s="113"/>
       <c r="G11" s="114"/>
       <c r="H11" s="122" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L11" s="37"/>
       <c r="M11" s="35"/>
       <c r="N11" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O11" s="318">
-        <v>43736</v>
+        <v>379</v>
+      </c>
+      <c r="O11" s="238">
+        <v>43737</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="34"/>
       <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="41" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" s="47"/>
-      <c r="C12" s="246" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="316"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="317" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="249" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="251"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="253"/>
-      <c r="P12" s="254"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="255"/>
-    </row>
-    <row r="13" spans="1:18" s="32" customFormat="1" ht="56.25">
+      <c r="C12" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="236"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="237" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="176"/>
+    </row>
+    <row r="13" spans="1:18" s="32" customFormat="1" ht="90">
       <c r="A13" s="41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="220" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="221" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="224" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="J13" s="225"/>
-      <c r="K13" s="225"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="228"/>
-      <c r="O13" s="229"/>
-      <c r="P13" s="226"/>
-      <c r="Q13" s="230"/>
-      <c r="R13" s="231"/>
-    </row>
-    <row r="14" spans="1:18" s="32" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="305" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="115"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="306" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="307" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="131" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="307" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="308"/>
+      <c r="M13" s="309"/>
+      <c r="N13" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O13" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="311"/>
+    </row>
+    <row r="14" spans="1:18" s="32" customFormat="1" ht="112.5">
       <c r="A14" s="41" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="222"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="224" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="225" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="235"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="238"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="231"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="120" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="306" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="307" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="K14" s="312" t="s">
+        <v>391</v>
+      </c>
+      <c r="L14" s="313"/>
+      <c r="M14" s="314"/>
+      <c r="N14" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O14" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="311"/>
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="56.25">
       <c r="A15" s="41" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="233" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="240" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="241" t="s">
-        <v>295</v>
-      </c>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="243"/>
-      <c r="N15" s="244"/>
-      <c r="O15" s="231"/>
-      <c r="P15" s="242"/>
-      <c r="Q15" s="245"/>
-      <c r="R15" s="231"/>
-    </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" ht="67.5">
+      <c r="D15" s="51"/>
+      <c r="E15" s="160" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="156"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="161" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="162" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="158"/>
+    </row>
+    <row r="16" spans="1:18" s="32" customFormat="1" ht="281.25">
       <c r="A16" s="41" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="233" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="240" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="241" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="243"/>
-      <c r="N16" s="244"/>
-      <c r="O16" s="231"/>
-      <c r="P16" s="242"/>
-      <c r="Q16" s="245"/>
-      <c r="R16" s="231"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="115"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="316" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="317" t="s">
+        <v>289</v>
+      </c>
+      <c r="J16" s="131" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="131" t="s">
+        <v>388</v>
+      </c>
+      <c r="L16" s="318"/>
+      <c r="M16" s="319"/>
+      <c r="N16" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O16" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q16" s="320"/>
+      <c r="R16" s="311"/>
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1">
       <c r="A17" s="52" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="53"/>
-      <c r="D17" s="246" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="247"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="249"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="251"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="253"/>
-      <c r="P17" s="254"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="255"/>
+      <c r="D17" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="168"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="176"/>
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A18" s="52" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="246" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="256"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="248" t="s">
+      <c r="D18" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="257" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="257"/>
-      <c r="K18" s="257"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="253"/>
-      <c r="P18" s="254"/>
-      <c r="Q18" s="252"/>
-      <c r="R18" s="255"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="178" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="176"/>
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="57" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="51"/>
       <c r="D19" s="58" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E19" s="120" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F19" s="113" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G19" s="114" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -8229,25 +8673,25 @@
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A20" s="57" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="51"/>
       <c r="D20" s="59"/>
       <c r="E20" s="120" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F20" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G20" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
@@ -8261,25 +8705,25 @@
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A21" s="57" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="51"/>
       <c r="D21" s="59"/>
       <c r="E21" s="120" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F21" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G21" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
@@ -8293,25 +8737,25 @@
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" hidden="1">
       <c r="A22" s="57" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="51"/>
       <c r="D22" s="59"/>
       <c r="E22" s="120" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F22" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
@@ -8325,1319 +8769,1359 @@
     </row>
     <row r="23" spans="1:18" ht="22.5">
       <c r="A23" s="57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="258" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="259" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="222"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="249"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="252"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="254"/>
-      <c r="Q23" s="252"/>
-      <c r="R23" s="255"/>
+      <c r="D23" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="170" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="176"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="57" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="53"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="259" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="222"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="249"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="251"/>
-      <c r="N24" s="252"/>
-      <c r="O24" s="253"/>
-      <c r="P24" s="254"/>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="255"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="170" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="176"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="57" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="53"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="259" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="222"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="252"/>
-      <c r="O25" s="253"/>
-      <c r="P25" s="254"/>
-      <c r="Q25" s="252"/>
-      <c r="R25" s="255"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="170" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="176"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="57" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="259" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="222"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="249"/>
-      <c r="K26" s="249"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="251"/>
-      <c r="N26" s="252"/>
-      <c r="O26" s="253"/>
-      <c r="P26" s="254"/>
-      <c r="Q26" s="252"/>
-      <c r="R26" s="255"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="170" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="176"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="57" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="259" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="222"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="249"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="252"/>
-      <c r="O27" s="253"/>
-      <c r="P27" s="254"/>
-      <c r="Q27" s="252"/>
-      <c r="R27" s="255"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="156"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="170" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="176"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="57" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="233" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="222"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="249" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="249"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="251"/>
-      <c r="N28" s="252"/>
-      <c r="O28" s="253"/>
-      <c r="P28" s="254"/>
-      <c r="Q28" s="252"/>
-      <c r="R28" s="255"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="170" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="176"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="57" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="51"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="261" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="222"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="248" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="257" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="257"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="251"/>
-      <c r="N29" s="252"/>
-      <c r="O29" s="253"/>
-      <c r="P29" s="254"/>
-      <c r="Q29" s="252"/>
-      <c r="R29" s="255"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="178" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="178"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="176"/>
     </row>
     <row r="30" spans="1:18" ht="22.5">
       <c r="A30" s="52" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B30" s="47"/>
       <c r="C30" s="51"/>
-      <c r="D30" s="232" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="261" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="222"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="248" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="262" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="257"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="251"/>
-      <c r="N30" s="252"/>
-      <c r="O30" s="253"/>
-      <c r="P30" s="254"/>
-      <c r="Q30" s="252"/>
-      <c r="R30" s="255"/>
+      <c r="D30" s="159" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="182" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="183" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="178"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="176"/>
     </row>
     <row r="31" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="52" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="263" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="264" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="222"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="266" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="266"/>
-      <c r="K31" s="266"/>
-      <c r="L31" s="242"/>
-      <c r="M31" s="243"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="242"/>
-      <c r="Q31" s="245"/>
-      <c r="R31" s="231"/>
+      <c r="D31" s="184" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="187" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="158"/>
     </row>
     <row r="32" spans="1:18" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="52" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="264" t="s">
-        <v>304</v>
-      </c>
-      <c r="F32" s="222"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I32" s="266" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="266"/>
-      <c r="K32" s="266"/>
-      <c r="L32" s="242"/>
-      <c r="M32" s="243"/>
-      <c r="N32" s="244"/>
-      <c r="O32" s="231"/>
-      <c r="P32" s="242"/>
-      <c r="Q32" s="245"/>
-      <c r="R32" s="231"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="185" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="187" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="158"/>
     </row>
     <row r="33" spans="1:18" s="32" customFormat="1" ht="45">
       <c r="A33" s="52" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="264" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="222"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" s="266" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="266"/>
-      <c r="K33" s="266"/>
-      <c r="L33" s="242"/>
-      <c r="M33" s="243"/>
-      <c r="N33" s="244"/>
-      <c r="O33" s="231"/>
-      <c r="P33" s="242"/>
-      <c r="Q33" s="245"/>
-      <c r="R33" s="231"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="185" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="187" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="158"/>
     </row>
     <row r="34" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="52" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="267"/>
-      <c r="E34" s="264" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="222"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="266" t="s">
-        <v>163</v>
-      </c>
-      <c r="J34" s="266"/>
-      <c r="K34" s="266"/>
-      <c r="L34" s="242"/>
-      <c r="M34" s="243"/>
-      <c r="N34" s="244"/>
-      <c r="O34" s="231"/>
-      <c r="P34" s="242"/>
-      <c r="Q34" s="245"/>
-      <c r="R34" s="231"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="185" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="187" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="165"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="166"/>
+      <c r="R34" s="158"/>
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="52" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="264" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="222"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="266" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
-      <c r="L35" s="268"/>
-      <c r="M35" s="269"/>
-      <c r="N35" s="268"/>
-      <c r="O35" s="269"/>
-      <c r="P35" s="268"/>
-      <c r="Q35" s="268"/>
-      <c r="R35" s="269"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="185" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="189"/>
+      <c r="O35" s="190"/>
+      <c r="P35" s="189"/>
+      <c r="Q35" s="189"/>
+      <c r="R35" s="190"/>
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="52" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="264" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="222"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="266" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" s="266"/>
-      <c r="K36" s="266"/>
-      <c r="L36" s="268"/>
-      <c r="M36" s="269"/>
-      <c r="N36" s="268"/>
-      <c r="O36" s="269"/>
-      <c r="P36" s="268"/>
-      <c r="Q36" s="268"/>
-      <c r="R36" s="269"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="185" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="156"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="190"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="189"/>
+      <c r="R36" s="190"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="38"/>
-      <c r="D37" s="267"/>
-      <c r="E37" s="264" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="222"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="265" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="266" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="266"/>
-      <c r="K37" s="266"/>
-      <c r="L37" s="268"/>
-      <c r="M37" s="269"/>
-      <c r="N37" s="268"/>
-      <c r="O37" s="269"/>
-      <c r="P37" s="268"/>
-      <c r="Q37" s="268"/>
-      <c r="R37" s="269"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="185" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="187" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="187"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="189"/>
+      <c r="M37" s="190"/>
+      <c r="N37" s="189"/>
+      <c r="O37" s="190"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="190"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="52" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="38"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="264" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="222"/>
-      <c r="G38" s="223"/>
-      <c r="H38" s="265" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="266" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="266"/>
-      <c r="K38" s="266"/>
-      <c r="L38" s="268"/>
-      <c r="M38" s="269"/>
-      <c r="N38" s="268"/>
-      <c r="O38" s="269"/>
-      <c r="P38" s="268"/>
-      <c r="Q38" s="268"/>
-      <c r="R38" s="269"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="185" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="187" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="190"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="190"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="52" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="38"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="264" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="222"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="265" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="266" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="266"/>
-      <c r="K39" s="266"/>
-      <c r="L39" s="268"/>
-      <c r="M39" s="269"/>
-      <c r="N39" s="268"/>
-      <c r="O39" s="269"/>
-      <c r="P39" s="268"/>
-      <c r="Q39" s="268"/>
-      <c r="R39" s="269"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="156"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="187" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="189"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="189"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="190"/>
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
       <c r="A40" s="61" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="38"/>
-      <c r="D40" s="271" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="264" t="s">
-        <v>305</v>
-      </c>
-      <c r="F40" s="222"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I40" s="266" t="s">
-        <v>165</v>
-      </c>
-      <c r="J40" s="266"/>
-      <c r="K40" s="266"/>
-      <c r="L40" s="268"/>
-      <c r="M40" s="269"/>
-      <c r="N40" s="268"/>
-      <c r="O40" s="269"/>
-      <c r="P40" s="268"/>
-      <c r="Q40" s="268"/>
-      <c r="R40" s="269"/>
+      <c r="D40" s="192" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="185" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="187" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="187"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="189"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="189"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="189"/>
+      <c r="Q40" s="189"/>
+      <c r="R40" s="190"/>
     </row>
     <row r="41" spans="1:18" ht="45">
       <c r="A41" s="61" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="267"/>
-      <c r="E41" s="264" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="222"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I41" s="266" t="s">
-        <v>165</v>
-      </c>
-      <c r="J41" s="266"/>
-      <c r="K41" s="266"/>
-      <c r="L41" s="268"/>
-      <c r="M41" s="269"/>
-      <c r="N41" s="268"/>
-      <c r="O41" s="269"/>
-      <c r="P41" s="268"/>
-      <c r="Q41" s="268"/>
-      <c r="R41" s="269"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="185" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="156"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="187" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="189"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="190"/>
     </row>
     <row r="42" spans="1:18" ht="54.75" customHeight="1">
       <c r="A42" s="61" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="267"/>
-      <c r="E42" s="264" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="222"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="266" t="s">
-        <v>167</v>
-      </c>
-      <c r="J42" s="266"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="268"/>
-      <c r="M42" s="269"/>
-      <c r="N42" s="268"/>
-      <c r="O42" s="269"/>
-      <c r="P42" s="268"/>
-      <c r="Q42" s="268"/>
-      <c r="R42" s="269"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="185" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="156"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="190"/>
     </row>
     <row r="43" spans="1:18" ht="54.75" customHeight="1">
       <c r="A43" s="61" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="264" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="222"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="266" t="s">
-        <v>167</v>
-      </c>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="268"/>
-      <c r="M43" s="269"/>
-      <c r="N43" s="268"/>
-      <c r="O43" s="269"/>
-      <c r="P43" s="268"/>
-      <c r="Q43" s="268"/>
-      <c r="R43" s="269"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="185" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="156"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="190"/>
+      <c r="N43" s="189"/>
+      <c r="O43" s="190"/>
+      <c r="P43" s="189"/>
+      <c r="Q43" s="189"/>
+      <c r="R43" s="190"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="38"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="272" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="222"/>
-      <c r="G44" s="223"/>
-      <c r="H44" s="273" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="274" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="274"/>
-      <c r="K44" s="274"/>
-      <c r="L44" s="275"/>
-      <c r="M44" s="276"/>
-      <c r="N44" s="275"/>
-      <c r="O44" s="276"/>
-      <c r="P44" s="275"/>
-      <c r="Q44" s="275"/>
-      <c r="R44" s="269"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="156"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="195" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="196"/>
+      <c r="M44" s="197"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="197"/>
+      <c r="P44" s="196"/>
+      <c r="Q44" s="196"/>
+      <c r="R44" s="190"/>
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="61" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B45" s="76"/>
-      <c r="C45" s="277" t="s">
+      <c r="C45" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="192"/>
+      <c r="E45" s="199" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="156"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="200" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="271"/>
-      <c r="E45" s="278" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="222"/>
-      <c r="G45" s="223"/>
-      <c r="H45" s="279" t="s">
-        <v>206</v>
-      </c>
-      <c r="I45" s="280" t="s">
-        <v>209</v>
-      </c>
-      <c r="J45" s="280"/>
-      <c r="K45" s="280"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="282"/>
-      <c r="N45" s="281"/>
-      <c r="O45" s="282"/>
-      <c r="P45" s="281"/>
-      <c r="Q45" s="281"/>
-      <c r="R45" s="255"/>
+      <c r="I45" s="201" t="s">
+        <v>202</v>
+      </c>
+      <c r="J45" s="201"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="202"/>
+      <c r="M45" s="203"/>
+      <c r="N45" s="202"/>
+      <c r="O45" s="203"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="202"/>
+      <c r="R45" s="176"/>
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="61" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B46" s="76"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="267"/>
-      <c r="E46" s="278" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="222"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="279" t="s">
-        <v>206</v>
-      </c>
-      <c r="I46" s="280" t="s">
-        <v>207</v>
-      </c>
-      <c r="J46" s="280"/>
-      <c r="K46" s="280"/>
-      <c r="L46" s="281"/>
-      <c r="M46" s="282"/>
-      <c r="N46" s="281"/>
-      <c r="O46" s="282"/>
-      <c r="P46" s="281"/>
-      <c r="Q46" s="281"/>
-      <c r="R46" s="255"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="199" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="156"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="200" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="J46" s="201"/>
+      <c r="K46" s="201"/>
+      <c r="L46" s="202"/>
+      <c r="M46" s="203"/>
+      <c r="N46" s="202"/>
+      <c r="O46" s="203"/>
+      <c r="P46" s="202"/>
+      <c r="Q46" s="202"/>
+      <c r="R46" s="176"/>
     </row>
     <row r="47" spans="1:18" ht="22.5">
       <c r="A47" s="61" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B47" s="76"/>
-      <c r="C47" s="283"/>
-      <c r="D47" s="267"/>
-      <c r="E47" s="278" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="222"/>
-      <c r="G47" s="223"/>
-      <c r="H47" s="279" t="s">
-        <v>208</v>
-      </c>
-      <c r="I47" s="280" t="s">
-        <v>204</v>
-      </c>
-      <c r="J47" s="280"/>
-      <c r="K47" s="280"/>
-      <c r="L47" s="281"/>
-      <c r="M47" s="282"/>
-      <c r="N47" s="281"/>
-      <c r="O47" s="282"/>
-      <c r="P47" s="281"/>
-      <c r="Q47" s="281"/>
-      <c r="R47" s="255"/>
+      <c r="C47" s="204"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="199" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="156"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J47" s="201"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="202"/>
+      <c r="M47" s="203"/>
+      <c r="N47" s="202"/>
+      <c r="O47" s="203"/>
+      <c r="P47" s="202"/>
+      <c r="Q47" s="202"/>
+      <c r="R47" s="176"/>
     </row>
     <row r="48" spans="1:18" ht="22.5">
       <c r="A48" s="61" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B48" s="76"/>
-      <c r="C48" s="283"/>
-      <c r="D48" s="267"/>
-      <c r="E48" s="278" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="222"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="279" t="s">
-        <v>208</v>
-      </c>
-      <c r="I48" s="280" t="s">
-        <v>204</v>
-      </c>
-      <c r="J48" s="280"/>
-      <c r="K48" s="280"/>
-      <c r="L48" s="281"/>
-      <c r="M48" s="282"/>
-      <c r="N48" s="281"/>
-      <c r="O48" s="282"/>
-      <c r="P48" s="281"/>
-      <c r="Q48" s="281"/>
-      <c r="R48" s="255"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="156"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J48" s="201"/>
+      <c r="K48" s="201"/>
+      <c r="L48" s="202"/>
+      <c r="M48" s="203"/>
+      <c r="N48" s="202"/>
+      <c r="O48" s="203"/>
+      <c r="P48" s="202"/>
+      <c r="Q48" s="202"/>
+      <c r="R48" s="176"/>
     </row>
     <row r="49" spans="1:18" ht="33.75">
       <c r="A49" s="61" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B49" s="76"/>
-      <c r="C49" s="283"/>
-      <c r="D49" s="267"/>
-      <c r="E49" s="278" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" s="222"/>
-      <c r="G49" s="223"/>
-      <c r="H49" s="279" t="s">
-        <v>208</v>
-      </c>
-      <c r="I49" s="280" t="s">
+      <c r="C49" s="204"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="199" t="s">
         <v>204</v>
       </c>
-      <c r="J49" s="280"/>
-      <c r="K49" s="280"/>
-      <c r="L49" s="281"/>
-      <c r="M49" s="282"/>
-      <c r="N49" s="281"/>
-      <c r="O49" s="282"/>
-      <c r="P49" s="281"/>
-      <c r="Q49" s="281"/>
-      <c r="R49" s="255"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="201"/>
+      <c r="K49" s="201"/>
+      <c r="L49" s="202"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="202"/>
+      <c r="O49" s="203"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="202"/>
+      <c r="R49" s="176"/>
     </row>
     <row r="50" spans="1:18" ht="22.5">
       <c r="A50" s="61" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B50" s="76"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="267"/>
-      <c r="E50" s="278" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="222"/>
-      <c r="G50" s="223"/>
-      <c r="H50" s="279" t="s">
-        <v>208</v>
-      </c>
-      <c r="I50" s="280" t="s">
-        <v>204</v>
-      </c>
-      <c r="J50" s="280"/>
-      <c r="K50" s="280"/>
-      <c r="L50" s="281"/>
-      <c r="M50" s="282"/>
-      <c r="N50" s="281"/>
-      <c r="O50" s="282"/>
-      <c r="P50" s="281"/>
-      <c r="Q50" s="281"/>
-      <c r="R50" s="255"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="199" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="156"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J50" s="201"/>
+      <c r="K50" s="201"/>
+      <c r="L50" s="202"/>
+      <c r="M50" s="203"/>
+      <c r="N50" s="202"/>
+      <c r="O50" s="203"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="202"/>
+      <c r="R50" s="176"/>
     </row>
     <row r="51" spans="1:18" ht="22.5">
       <c r="A51" s="61" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B51" s="76"/>
-      <c r="C51" s="283"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="278" t="s">
-        <v>213</v>
-      </c>
-      <c r="F51" s="222"/>
-      <c r="G51" s="223"/>
-      <c r="H51" s="279" t="s">
-        <v>208</v>
-      </c>
-      <c r="I51" s="280" t="s">
-        <v>204</v>
-      </c>
-      <c r="J51" s="280"/>
-      <c r="K51" s="280"/>
-      <c r="L51" s="281"/>
-      <c r="M51" s="282"/>
-      <c r="N51" s="281"/>
-      <c r="O51" s="282"/>
-      <c r="P51" s="281"/>
-      <c r="Q51" s="281"/>
-      <c r="R51" s="255"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="199" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="156"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J51" s="201"/>
+      <c r="K51" s="201"/>
+      <c r="L51" s="202"/>
+      <c r="M51" s="203"/>
+      <c r="N51" s="202"/>
+      <c r="O51" s="203"/>
+      <c r="P51" s="202"/>
+      <c r="Q51" s="202"/>
+      <c r="R51" s="176"/>
     </row>
     <row r="52" spans="1:18" ht="22.5">
       <c r="A52" s="61" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B52" s="76"/>
-      <c r="C52" s="283"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="278" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="222"/>
-      <c r="G52" s="223"/>
-      <c r="H52" s="279" t="s">
-        <v>208</v>
-      </c>
-      <c r="I52" s="280" t="s">
-        <v>204</v>
-      </c>
-      <c r="J52" s="280"/>
-      <c r="K52" s="280"/>
-      <c r="L52" s="281"/>
-      <c r="M52" s="282"/>
-      <c r="N52" s="281"/>
-      <c r="O52" s="282"/>
-      <c r="P52" s="281"/>
-      <c r="Q52" s="281"/>
-      <c r="R52" s="255"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="199" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="156"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52" s="201"/>
+      <c r="K52" s="201"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="203"/>
+      <c r="N52" s="202"/>
+      <c r="O52" s="203"/>
+      <c r="P52" s="202"/>
+      <c r="Q52" s="202"/>
+      <c r="R52" s="176"/>
     </row>
     <row r="53" spans="1:18" ht="22.5">
       <c r="A53" s="61" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B53" s="77"/>
-      <c r="C53" s="284"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="278" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="222"/>
-      <c r="G53" s="223"/>
-      <c r="H53" s="279" t="s">
+      <c r="C53" s="205"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="199" t="s">
         <v>208</v>
       </c>
-      <c r="I53" s="280" t="s">
-        <v>204</v>
-      </c>
-      <c r="J53" s="280"/>
-      <c r="K53" s="280"/>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282"/>
-      <c r="N53" s="281"/>
-      <c r="O53" s="282"/>
-      <c r="P53" s="281"/>
-      <c r="Q53" s="281"/>
-      <c r="R53" s="255"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="J53" s="201"/>
+      <c r="K53" s="201"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="203"/>
+      <c r="N53" s="202"/>
+      <c r="O53" s="203"/>
+      <c r="P53" s="202"/>
+      <c r="Q53" s="202"/>
+      <c r="R53" s="176"/>
     </row>
     <row r="54" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A54" s="61" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E54" s="121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F54" s="113"/>
       <c r="G54" s="114"/>
       <c r="H54" s="108" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J54" s="71" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K54" s="71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L54" s="78"/>
       <c r="M54" s="79"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P54" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q54" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N54" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q54" s="36"/>
       <c r="R54" s="46"/>
     </row>
     <row r="55" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A55" s="61" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="121" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="114"/>
       <c r="H55" s="108" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J55" s="56" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K55" s="56" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L55" s="37"/>
       <c r="M55" s="35"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P55" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q55" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N55" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q55" s="36"/>
       <c r="R55" s="46"/>
     </row>
     <row r="56" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A56" s="61" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
       <c r="E56" s="121" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F56" s="113"/>
       <c r="G56" s="114"/>
       <c r="H56" s="108" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J56" s="56" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K56" s="56" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L56" s="37"/>
       <c r="M56" s="35"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P56" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q56" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N56" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O56" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q56" s="36"/>
       <c r="R56" s="46"/>
     </row>
-    <row r="57" spans="1:18" s="64" customFormat="1">
+    <row r="57" spans="1:18" s="64" customFormat="1" ht="33.75">
       <c r="A57" s="61" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
-      <c r="E57" s="285" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="222"/>
-      <c r="G57" s="223"/>
-      <c r="H57" s="286" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="287" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="257"/>
-      <c r="K57" s="257"/>
-      <c r="L57" s="250"/>
-      <c r="M57" s="251"/>
-      <c r="N57" s="252"/>
-      <c r="O57" s="253"/>
-      <c r="P57" s="254"/>
-      <c r="Q57" s="252"/>
-      <c r="R57" s="255"/>
+      <c r="E57" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="115"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K57" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="L57" s="37"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O57" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="63"/>
     </row>
     <row r="58" spans="1:18" s="64" customFormat="1" ht="22.5">
       <c r="A58" s="61" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
       <c r="D58" s="60"/>
-      <c r="E58" s="285" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="222"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="286" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="287" t="s">
-        <v>297</v>
-      </c>
-      <c r="J58" s="257"/>
-      <c r="K58" s="257"/>
-      <c r="L58" s="250"/>
-      <c r="M58" s="251"/>
-      <c r="N58" s="252"/>
-      <c r="O58" s="253"/>
-      <c r="P58" s="254"/>
-      <c r="Q58" s="252"/>
-      <c r="R58" s="255"/>
+      <c r="E58" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="115"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="K58" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58" s="37"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O58" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="63"/>
     </row>
     <row r="59" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A59" s="61" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
       <c r="D59" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="288" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="222"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="286" t="s">
-        <v>51</v>
-      </c>
-      <c r="I59" s="287" t="s">
-        <v>297</v>
-      </c>
-      <c r="J59" s="257"/>
-      <c r="K59" s="257"/>
-      <c r="L59" s="250"/>
-      <c r="M59" s="251"/>
-      <c r="N59" s="252"/>
-      <c r="O59" s="253"/>
-      <c r="P59" s="254"/>
-      <c r="Q59" s="252"/>
-      <c r="R59" s="255"/>
+        <v>124</v>
+      </c>
+      <c r="E59" s="208" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="156"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="206" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="207" t="s">
+        <v>290</v>
+      </c>
+      <c r="J59" s="178"/>
+      <c r="K59" s="178"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="172"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="175"/>
+      <c r="Q59" s="173"/>
+      <c r="R59" s="176"/>
     </row>
     <row r="60" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A60" s="61" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
       <c r="D60" s="51"/>
-      <c r="E60" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="222"/>
-      <c r="G60" s="223"/>
-      <c r="H60" s="286" t="s">
+      <c r="E60" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="I60" s="287" t="s">
-        <v>297</v>
-      </c>
-      <c r="J60" s="257"/>
-      <c r="K60" s="257"/>
-      <c r="L60" s="250"/>
-      <c r="M60" s="251"/>
-      <c r="N60" s="252"/>
-      <c r="O60" s="253"/>
-      <c r="P60" s="254"/>
-      <c r="Q60" s="252"/>
-      <c r="R60" s="255"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="206" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="207" t="s">
+        <v>290</v>
+      </c>
+      <c r="J60" s="178"/>
+      <c r="K60" s="178"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="172"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="174"/>
+      <c r="P60" s="175"/>
+      <c r="Q60" s="173"/>
+      <c r="R60" s="176"/>
     </row>
     <row r="61" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="61" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
       <c r="D61" s="60"/>
       <c r="E61" s="56" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F61" s="113"/>
       <c r="G61" s="114"/>
       <c r="H61" s="108" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I61" s="62" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J61" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="K61" s="56" t="s">
         <v>343</v>
-      </c>
-      <c r="K61" s="56" t="s">
-        <v>350</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="35"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P61" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q61" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N61" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O61" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q61" s="36"/>
       <c r="R61" s="46"/>
     </row>
-    <row r="62" spans="1:18" s="32" customFormat="1">
+    <row r="62" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A62" s="61" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
-      <c r="D62" s="220" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="257" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="222"/>
-      <c r="G62" s="223"/>
-      <c r="H62" s="286" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" s="287" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" s="257"/>
-      <c r="K62" s="257"/>
-      <c r="L62" s="250"/>
-      <c r="M62" s="251"/>
-      <c r="N62" s="252"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="254"/>
-      <c r="Q62" s="252"/>
-      <c r="R62" s="255"/>
-    </row>
-    <row r="63" spans="1:18" s="32" customFormat="1">
+      <c r="D62" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="115"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="K62" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="L62" s="37"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O62" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P62" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="63"/>
+    </row>
+    <row r="63" spans="1:18" s="32" customFormat="1" ht="22.5">
       <c r="A63" s="61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
-      <c r="D63" s="261"/>
-      <c r="E63" s="257" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="222"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="286" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" s="287" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="257"/>
-      <c r="K63" s="257"/>
-      <c r="L63" s="250"/>
-      <c r="M63" s="251"/>
-      <c r="N63" s="252"/>
-      <c r="O63" s="253"/>
-      <c r="P63" s="254"/>
-      <c r="Q63" s="252"/>
-      <c r="R63" s="255"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="115"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K63" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="L63" s="37"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O63" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="63"/>
     </row>
     <row r="64" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A64" s="61" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
-      <c r="D64" s="220" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="257" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="222"/>
-      <c r="G64" s="223"/>
-      <c r="H64" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I64" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J64" s="257"/>
-      <c r="K64" s="257"/>
-      <c r="L64" s="250"/>
-      <c r="M64" s="251"/>
-      <c r="N64" s="252"/>
-      <c r="O64" s="253"/>
-      <c r="P64" s="254"/>
-      <c r="Q64" s="252"/>
-      <c r="R64" s="255"/>
+      <c r="D64" s="155" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="156"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" s="178"/>
+      <c r="K64" s="178"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="173"/>
+      <c r="O64" s="174"/>
+      <c r="P64" s="175"/>
+      <c r="Q64" s="173"/>
+      <c r="R64" s="176"/>
     </row>
     <row r="65" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="61" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
-      <c r="D65" s="232"/>
-      <c r="E65" s="257" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="222"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J65" s="257"/>
-      <c r="K65" s="257"/>
-      <c r="L65" s="250"/>
-      <c r="M65" s="251"/>
-      <c r="N65" s="252"/>
-      <c r="O65" s="253"/>
-      <c r="P65" s="254"/>
-      <c r="Q65" s="252"/>
-      <c r="R65" s="255"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="178" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="156"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="172"/>
+      <c r="N65" s="173"/>
+      <c r="O65" s="174"/>
+      <c r="P65" s="175"/>
+      <c r="Q65" s="173"/>
+      <c r="R65" s="176"/>
     </row>
     <row r="66" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="61" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
-      <c r="D66" s="232"/>
-      <c r="E66" s="257" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="222"/>
-      <c r="G66" s="223"/>
-      <c r="H66" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I66" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J66" s="257"/>
-      <c r="K66" s="257"/>
-      <c r="L66" s="250"/>
-      <c r="M66" s="251"/>
-      <c r="N66" s="252"/>
-      <c r="O66" s="253"/>
-      <c r="P66" s="254"/>
-      <c r="Q66" s="252"/>
-      <c r="R66" s="255"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="178" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" s="156"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I66" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="178"/>
+      <c r="K66" s="178"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="172"/>
+      <c r="N66" s="173"/>
+      <c r="O66" s="174"/>
+      <c r="P66" s="175"/>
+      <c r="Q66" s="173"/>
+      <c r="R66" s="176"/>
     </row>
     <row r="67" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="61" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
       <c r="E67" s="56" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F67" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G67" s="114" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H67" s="108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I67" s="62" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
@@ -9651,407 +10135,407 @@
     </row>
     <row r="68" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="61" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
-      <c r="D68" s="232"/>
-      <c r="E68" s="257" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="222"/>
-      <c r="G68" s="223"/>
-      <c r="H68" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I68" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J68" s="257"/>
-      <c r="K68" s="257"/>
-      <c r="L68" s="250"/>
-      <c r="M68" s="251"/>
-      <c r="N68" s="252"/>
-      <c r="O68" s="253"/>
-      <c r="P68" s="254"/>
-      <c r="Q68" s="252"/>
-      <c r="R68" s="255"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="156"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="178"/>
+      <c r="K68" s="178"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="172"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="174"/>
+      <c r="P68" s="175"/>
+      <c r="Q68" s="173"/>
+      <c r="R68" s="176"/>
     </row>
     <row r="69" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="61" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
-      <c r="D69" s="232"/>
-      <c r="E69" s="257" t="s">
-        <v>232</v>
-      </c>
-      <c r="F69" s="222"/>
-      <c r="G69" s="223"/>
-      <c r="H69" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I69" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" s="257"/>
-      <c r="K69" s="257"/>
-      <c r="L69" s="250"/>
-      <c r="M69" s="251"/>
-      <c r="N69" s="252"/>
-      <c r="O69" s="253"/>
-      <c r="P69" s="254"/>
-      <c r="Q69" s="252"/>
-      <c r="R69" s="255"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="178" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" s="156"/>
+      <c r="G69" s="157"/>
+      <c r="H69" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I69" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" s="178"/>
+      <c r="K69" s="178"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="172"/>
+      <c r="N69" s="173"/>
+      <c r="O69" s="174"/>
+      <c r="P69" s="175"/>
+      <c r="Q69" s="173"/>
+      <c r="R69" s="176"/>
     </row>
     <row r="70" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="61" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="257" t="s">
+      <c r="D70" s="159"/>
+      <c r="E70" s="178" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="156"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="206" t="s">
         <v>133</v>
       </c>
-      <c r="F70" s="222"/>
-      <c r="G70" s="223"/>
-      <c r="H70" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I70" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" s="257"/>
-      <c r="K70" s="257"/>
-      <c r="L70" s="250"/>
-      <c r="M70" s="251"/>
-      <c r="N70" s="252"/>
-      <c r="O70" s="253"/>
-      <c r="P70" s="254"/>
-      <c r="Q70" s="252"/>
-      <c r="R70" s="255"/>
+      <c r="I70" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="178"/>
+      <c r="K70" s="178"/>
+      <c r="L70" s="171"/>
+      <c r="M70" s="172"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="174"/>
+      <c r="P70" s="175"/>
+      <c r="Q70" s="173"/>
+      <c r="R70" s="176"/>
     </row>
     <row r="71" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="61" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
-      <c r="D71" s="261"/>
-      <c r="E71" s="257" t="s">
-        <v>298</v>
-      </c>
-      <c r="F71" s="222"/>
-      <c r="G71" s="223"/>
-      <c r="H71" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I71" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="257"/>
-      <c r="K71" s="257"/>
-      <c r="L71" s="250"/>
-      <c r="M71" s="251"/>
-      <c r="N71" s="252"/>
-      <c r="O71" s="253"/>
-      <c r="P71" s="254"/>
-      <c r="Q71" s="252"/>
-      <c r="R71" s="255"/>
+      <c r="D71" s="182"/>
+      <c r="E71" s="178" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="156"/>
+      <c r="G71" s="157"/>
+      <c r="H71" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71" s="207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" s="178"/>
+      <c r="K71" s="178"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="172"/>
+      <c r="N71" s="173"/>
+      <c r="O71" s="174"/>
+      <c r="P71" s="175"/>
+      <c r="Q71" s="173"/>
+      <c r="R71" s="176"/>
     </row>
     <row r="72" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="61" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
-      <c r="D72" s="232" t="s">
-        <v>229</v>
-      </c>
-      <c r="E72" s="257" t="s">
-        <v>230</v>
-      </c>
-      <c r="F72" s="222"/>
-      <c r="G72" s="223"/>
-      <c r="H72" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I72" s="313" t="s">
-        <v>231</v>
-      </c>
-      <c r="J72" s="257"/>
-      <c r="K72" s="257"/>
-      <c r="L72" s="250"/>
-      <c r="M72" s="251"/>
-      <c r="N72" s="252"/>
-      <c r="O72" s="253"/>
-      <c r="P72" s="254"/>
-      <c r="Q72" s="252"/>
-      <c r="R72" s="255"/>
-    </row>
-    <row r="73" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+      <c r="D72" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="178" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="156"/>
+      <c r="G72" s="157"/>
+      <c r="H72" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I72" s="233" t="s">
+        <v>224</v>
+      </c>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="172"/>
+      <c r="N72" s="173"/>
+      <c r="O72" s="174"/>
+      <c r="P72" s="175"/>
+      <c r="Q72" s="173"/>
+      <c r="R72" s="176"/>
+    </row>
+    <row r="73" spans="1:18" s="32" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="61" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F73" s="113"/>
       <c r="G73" s="114"/>
       <c r="H73" s="108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="J73" s="131" t="s">
-        <v>343</v>
+        <v>62</v>
+      </c>
+      <c r="J73" s="321" t="s">
+        <v>395</v>
       </c>
       <c r="K73" s="131" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L73" s="37"/>
       <c r="M73" s="35"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P73" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q73" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N73" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O73" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P73" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q73" s="36"/>
       <c r="R73" s="46"/>
     </row>
-    <row r="74" spans="1:18" s="32" customFormat="1" ht="33.75">
+    <row r="74" spans="1:18" s="32" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="61" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="E74" s="56" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F74" s="113"/>
       <c r="G74" s="114"/>
       <c r="H74" s="108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J74" s="131" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="K74" s="131" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="L74" s="37"/>
       <c r="M74" s="35"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P74" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q74" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N74" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O74" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P74" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q74" s="36"/>
       <c r="R74" s="46"/>
     </row>
     <row r="75" spans="1:18" s="32" customFormat="1">
       <c r="A75" s="61" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="60"/>
-      <c r="E75" s="257" t="s">
-        <v>70</v>
-      </c>
-      <c r="F75" s="222"/>
-      <c r="G75" s="223"/>
-      <c r="H75" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I75" s="220" t="s">
-        <v>69</v>
-      </c>
-      <c r="J75" s="257"/>
-      <c r="K75" s="257"/>
-      <c r="L75" s="250"/>
-      <c r="M75" s="251"/>
-      <c r="N75" s="252"/>
-      <c r="O75" s="253"/>
-      <c r="P75" s="254"/>
-      <c r="Q75" s="252"/>
-      <c r="R75" s="255"/>
-    </row>
-    <row r="76" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+      <c r="E75" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="156"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I75" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="178"/>
+      <c r="K75" s="178"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="172"/>
+      <c r="N75" s="173"/>
+      <c r="O75" s="174"/>
+      <c r="P75" s="175"/>
+      <c r="Q75" s="173"/>
+      <c r="R75" s="176"/>
+    </row>
+    <row r="76" spans="1:18" s="32" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="61" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E76" s="56" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F76" s="113"/>
       <c r="G76" s="114"/>
       <c r="H76" s="108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="J76" s="131" t="s">
-        <v>343</v>
+        <v>62</v>
+      </c>
+      <c r="J76" s="321" t="s">
+        <v>396</v>
       </c>
       <c r="K76" s="131" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L76" s="37"/>
       <c r="M76" s="35"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P76" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q76" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N76" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O76" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P76" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q76" s="36"/>
       <c r="R76" s="46"/>
     </row>
     <row r="77" spans="1:18" s="32" customFormat="1" ht="33.75">
       <c r="A77" s="61" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
       <c r="D77" s="51"/>
       <c r="E77" s="56" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F77" s="113"/>
       <c r="G77" s="114"/>
       <c r="H77" s="108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J77" s="131" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="K77" s="131" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="L77" s="37"/>
       <c r="M77" s="35"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P77" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q77" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N77" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O77" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P77" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q77" s="36"/>
       <c r="R77" s="46"/>
     </row>
     <row r="78" spans="1:18" s="32" customFormat="1">
       <c r="A78" s="61" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="60"/>
-      <c r="E78" s="315" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="222"/>
-      <c r="G78" s="223"/>
-      <c r="H78" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I78" s="220" t="s">
-        <v>69</v>
-      </c>
-      <c r="J78" s="257"/>
-      <c r="K78" s="257"/>
-      <c r="L78" s="250"/>
-      <c r="M78" s="251"/>
-      <c r="N78" s="252"/>
-      <c r="O78" s="253"/>
-      <c r="P78" s="254"/>
-      <c r="Q78" s="252"/>
-      <c r="R78" s="255"/>
+      <c r="E78" s="235" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="156"/>
+      <c r="G78" s="157"/>
+      <c r="H78" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="J78" s="178"/>
+      <c r="K78" s="178"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="172"/>
+      <c r="N78" s="173"/>
+      <c r="O78" s="174"/>
+      <c r="P78" s="175"/>
+      <c r="Q78" s="173"/>
+      <c r="R78" s="176"/>
     </row>
     <row r="79" spans="1:18" s="32" customFormat="1">
       <c r="A79" s="61" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
-      <c r="D79" s="246" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="289"/>
-      <c r="F79" s="222"/>
-      <c r="G79" s="223"/>
-      <c r="H79" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="I79" s="220" t="s">
-        <v>69</v>
-      </c>
-      <c r="J79" s="257"/>
-      <c r="K79" s="257"/>
-      <c r="L79" s="250"/>
-      <c r="M79" s="251"/>
-      <c r="N79" s="252"/>
-      <c r="O79" s="253"/>
-      <c r="P79" s="254"/>
-      <c r="Q79" s="252"/>
-      <c r="R79" s="255"/>
+      <c r="D79" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="209"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="157"/>
+      <c r="H79" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79" s="178"/>
+      <c r="K79" s="178"/>
+      <c r="L79" s="171"/>
+      <c r="M79" s="172"/>
+      <c r="N79" s="173"/>
+      <c r="O79" s="174"/>
+      <c r="P79" s="175"/>
+      <c r="Q79" s="173"/>
+      <c r="R79" s="176"/>
     </row>
     <row r="80" spans="1:18" s="32" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="66" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E80" s="55"/>
       <c r="F80" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G80" s="114" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H80" s="108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I80" s="49" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J80" s="56"/>
       <c r="K80" s="56"/>
@@ -10063,259 +10547,259 @@
       <c r="Q80" s="34"/>
       <c r="R80" s="46"/>
     </row>
-    <row r="81" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="81" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="61" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B81" s="51"/>
       <c r="C81" s="49" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D81" s="67" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E81" s="68"/>
       <c r="F81" s="113"/>
       <c r="G81" s="114"/>
       <c r="H81" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I81" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J81" s="131" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K81" s="131" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L81" s="37"/>
       <c r="M81" s="35"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P81" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q81" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N81" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O81" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P81" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q81" s="36"/>
       <c r="R81" s="46"/>
     </row>
-    <row r="82" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="82" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="61" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="69" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E82" s="85" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F82" s="113"/>
       <c r="G82" s="114"/>
       <c r="H82" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I82" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J82" s="131" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K82" s="131" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L82" s="37"/>
       <c r="M82" s="35"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P82" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q82" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N82" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O82" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P82" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q82" s="36"/>
       <c r="R82" s="46"/>
     </row>
     <row r="83" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="61" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="69"/>
       <c r="E83" s="85" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F83" s="115"/>
       <c r="G83" s="119"/>
       <c r="H83" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I83" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J83" s="56" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K83" s="56" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L83" s="37"/>
       <c r="M83" s="35"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P83" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q83" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N83" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O83" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P83" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q83" s="36"/>
       <c r="R83" s="63"/>
     </row>
-    <row r="84" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="84" spans="1:18" s="32" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="61" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="69" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E84" s="70"/>
       <c r="F84" s="113"/>
       <c r="G84" s="114"/>
       <c r="H84" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I84" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J84" s="131" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="K84" s="131" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L84" s="37"/>
       <c r="M84" s="35"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P84" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q84" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N84" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O84" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P84" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q84" s="36"/>
       <c r="R84" s="46"/>
     </row>
-    <row r="85" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="85" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="61" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="69" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E85" s="70"/>
       <c r="F85" s="113"/>
       <c r="G85" s="114"/>
       <c r="H85" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I85" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J85" s="131" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K85" s="131" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L85" s="37"/>
       <c r="M85" s="35"/>
-      <c r="N85" s="34"/>
-      <c r="O85" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P85" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q85" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N85" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O85" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P85" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q85" s="36"/>
       <c r="R85" s="46"/>
     </row>
-    <row r="86" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="86" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="61" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="69" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E86" s="70"/>
       <c r="F86" s="113"/>
       <c r="G86" s="114"/>
       <c r="H86" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I86" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J86" s="131" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K86" s="131" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L86" s="37"/>
       <c r="M86" s="35"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P86" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q86" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N86" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O86" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P86" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q86" s="36"/>
       <c r="R86" s="46"/>
     </row>
     <row r="87" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="61" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="69" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E87" s="70"/>
       <c r="F87" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G87" s="114" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H87" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I87" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J87" s="56"/>
       <c r="K87" s="56"/>
@@ -10329,25 +10813,25 @@
     </row>
     <row r="88" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="61" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E88" s="70"/>
       <c r="F88" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G88" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H88" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I88" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J88" s="56"/>
       <c r="K88" s="56"/>
@@ -10361,25 +10845,25 @@
     </row>
     <row r="89" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="61" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="69" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E89" s="70"/>
       <c r="F89" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G89" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H89" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I89" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J89" s="56"/>
       <c r="K89" s="56"/>
@@ -10393,25 +10877,25 @@
     </row>
     <row r="90" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="61" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="69" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E90" s="70"/>
       <c r="F90" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G90" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I90" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J90" s="56"/>
       <c r="K90" s="56"/>
@@ -10425,25 +10909,25 @@
     </row>
     <row r="91" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="61" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="69" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E91" s="70"/>
       <c r="F91" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G91" s="114" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H91" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I91" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J91" s="56"/>
       <c r="K91" s="56"/>
@@ -10455,177 +10939,181 @@
       <c r="Q91" s="34"/>
       <c r="R91" s="46"/>
     </row>
-    <row r="92" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+    <row r="92" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="61" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="290" t="s">
-        <v>85</v>
-      </c>
-      <c r="E92" s="291"/>
-      <c r="F92" s="222"/>
-      <c r="G92" s="223"/>
-      <c r="H92" s="220" t="s">
-        <v>141</v>
-      </c>
-      <c r="I92" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="J92" s="257"/>
-      <c r="K92" s="257"/>
-      <c r="L92" s="250"/>
-      <c r="M92" s="251"/>
-      <c r="N92" s="252"/>
-      <c r="O92" s="253"/>
-      <c r="P92" s="254"/>
-      <c r="Q92" s="252"/>
-      <c r="R92" s="255"/>
-    </row>
-    <row r="93" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
+      <c r="D92" s="210" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="211"/>
+      <c r="F92" s="156"/>
+      <c r="G92" s="157"/>
+      <c r="H92" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="I92" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="J92" s="178"/>
+      <c r="K92" s="178"/>
+      <c r="L92" s="171"/>
+      <c r="M92" s="172"/>
+      <c r="N92" s="173"/>
+      <c r="O92" s="174"/>
+      <c r="P92" s="175"/>
+      <c r="Q92" s="173"/>
+      <c r="R92" s="176"/>
+    </row>
+    <row r="93" spans="1:18" s="32" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="61" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
-      <c r="D93" s="290" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="291"/>
-      <c r="F93" s="222"/>
-      <c r="G93" s="223"/>
-      <c r="H93" s="220" t="s">
-        <v>141</v>
-      </c>
-      <c r="I93" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="J93" s="257"/>
-      <c r="K93" s="257"/>
-      <c r="L93" s="250"/>
-      <c r="M93" s="251"/>
-      <c r="N93" s="252"/>
-      <c r="O93" s="253"/>
-      <c r="P93" s="254"/>
-      <c r="Q93" s="252"/>
-      <c r="R93" s="255"/>
-    </row>
-    <row r="94" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
+      <c r="D93" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="70"/>
+      <c r="F93" s="115"/>
+      <c r="G93" s="119"/>
+      <c r="H93" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I93" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J93" s="131" t="s">
+        <v>398</v>
+      </c>
+      <c r="K93" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="L93" s="37"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="63"/>
+    </row>
+    <row r="94" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="61" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
       <c r="D94" s="69" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E94" s="70"/>
       <c r="F94" s="113"/>
       <c r="G94" s="114"/>
       <c r="H94" s="49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I94" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J94" s="56" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K94" s="56" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L94" s="37"/>
       <c r="M94" s="35"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="P94" s="318">
-        <v>43736</v>
-      </c>
-      <c r="Q94" s="36" t="s">
-        <v>357</v>
-      </c>
+      <c r="N94" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="O94" s="238">
+        <v>43737</v>
+      </c>
+      <c r="P94" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q94" s="36"/>
       <c r="R94" s="46"/>
     </row>
     <row r="95" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="61" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="290" t="s">
-        <v>88</v>
-      </c>
-      <c r="E95" s="291"/>
-      <c r="F95" s="222"/>
-      <c r="G95" s="223"/>
-      <c r="H95" s="314" t="s">
-        <v>141</v>
-      </c>
-      <c r="I95" s="288" t="s">
-        <v>76</v>
-      </c>
-      <c r="J95" s="257"/>
-      <c r="K95" s="257"/>
-      <c r="L95" s="250"/>
-      <c r="M95" s="251"/>
-      <c r="N95" s="252"/>
-      <c r="O95" s="253"/>
-      <c r="P95" s="254"/>
-      <c r="Q95" s="252"/>
-      <c r="R95" s="255"/>
+      <c r="D95" s="210" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="211"/>
+      <c r="F95" s="156"/>
+      <c r="G95" s="157"/>
+      <c r="H95" s="234" t="s">
+        <v>134</v>
+      </c>
+      <c r="I95" s="208" t="s">
+        <v>69</v>
+      </c>
+      <c r="J95" s="178"/>
+      <c r="K95" s="178"/>
+      <c r="L95" s="171"/>
+      <c r="M95" s="172"/>
+      <c r="N95" s="173"/>
+      <c r="O95" s="174"/>
+      <c r="P95" s="175"/>
+      <c r="Q95" s="173"/>
+      <c r="R95" s="176"/>
     </row>
     <row r="96" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="61" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
-      <c r="D96" s="290" t="s">
-        <v>224</v>
-      </c>
-      <c r="E96" s="291"/>
-      <c r="F96" s="222"/>
-      <c r="G96" s="223"/>
-      <c r="H96" s="220" t="s">
-        <v>141</v>
-      </c>
-      <c r="I96" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="J96" s="257"/>
-      <c r="K96" s="257"/>
-      <c r="L96" s="250"/>
-      <c r="M96" s="251"/>
-      <c r="N96" s="252"/>
-      <c r="O96" s="253"/>
-      <c r="P96" s="254"/>
-      <c r="Q96" s="252"/>
-      <c r="R96" s="255"/>
+      <c r="D96" s="210" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" s="211"/>
+      <c r="F96" s="156"/>
+      <c r="G96" s="157"/>
+      <c r="H96" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="J96" s="178"/>
+      <c r="K96" s="178"/>
+      <c r="L96" s="171"/>
+      <c r="M96" s="172"/>
+      <c r="N96" s="173"/>
+      <c r="O96" s="174"/>
+      <c r="P96" s="175"/>
+      <c r="Q96" s="173"/>
+      <c r="R96" s="176"/>
     </row>
     <row r="97" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="61" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
       <c r="D97" s="69" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E97" s="70"/>
       <c r="F97" s="113" t="s">
+        <v>299</v>
+      </c>
+      <c r="G97" s="114" t="s">
         <v>306</v>
       </c>
-      <c r="G97" s="114" t="s">
-        <v>313</v>
-      </c>
       <c r="H97" s="123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I97" s="65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J97" s="56"/>
       <c r="K97" s="56"/>
@@ -10639,109 +11127,109 @@
     </row>
     <row r="98" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="61" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="292" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" s="293"/>
-      <c r="F98" s="222"/>
-      <c r="G98" s="223"/>
-      <c r="H98" s="220" t="s">
-        <v>141</v>
-      </c>
-      <c r="I98" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="J98" s="257"/>
-      <c r="K98" s="257"/>
-      <c r="L98" s="250"/>
-      <c r="M98" s="251"/>
-      <c r="N98" s="252"/>
-      <c r="O98" s="253"/>
-      <c r="P98" s="254"/>
-      <c r="Q98" s="252"/>
-      <c r="R98" s="255"/>
+      <c r="D98" s="212" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" s="213"/>
+      <c r="F98" s="156"/>
+      <c r="G98" s="157"/>
+      <c r="H98" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="I98" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="J98" s="178"/>
+      <c r="K98" s="178"/>
+      <c r="L98" s="171"/>
+      <c r="M98" s="172"/>
+      <c r="N98" s="173"/>
+      <c r="O98" s="174"/>
+      <c r="P98" s="175"/>
+      <c r="Q98" s="173"/>
+      <c r="R98" s="176"/>
     </row>
     <row r="99" spans="1:18" s="32" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="61" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="292" t="s">
-        <v>227</v>
-      </c>
-      <c r="E99" s="293"/>
-      <c r="F99" s="222"/>
-      <c r="G99" s="223"/>
-      <c r="H99" s="220" t="s">
-        <v>141</v>
-      </c>
-      <c r="I99" s="220" t="s">
-        <v>76</v>
-      </c>
-      <c r="J99" s="257"/>
-      <c r="K99" s="257"/>
-      <c r="L99" s="250"/>
-      <c r="M99" s="251"/>
-      <c r="N99" s="252"/>
-      <c r="O99" s="253"/>
-      <c r="P99" s="254"/>
-      <c r="Q99" s="252"/>
-      <c r="R99" s="255"/>
+      <c r="D99" s="212" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="213"/>
+      <c r="F99" s="156"/>
+      <c r="G99" s="157"/>
+      <c r="H99" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="I99" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="J99" s="178"/>
+      <c r="K99" s="178"/>
+      <c r="L99" s="171"/>
+      <c r="M99" s="172"/>
+      <c r="N99" s="173"/>
+      <c r="O99" s="174"/>
+      <c r="P99" s="175"/>
+      <c r="Q99" s="173"/>
+      <c r="R99" s="176"/>
     </row>
     <row r="100" spans="1:18" s="32" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="90" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
-      <c r="D100" s="294" t="s">
-        <v>233</v>
-      </c>
-      <c r="E100" s="295"/>
-      <c r="F100" s="222"/>
-      <c r="G100" s="223"/>
-      <c r="H100" s="296" t="s">
-        <v>141</v>
-      </c>
-      <c r="I100" s="297" t="s">
-        <v>76</v>
-      </c>
-      <c r="J100" s="298"/>
-      <c r="K100" s="298"/>
-      <c r="L100" s="299"/>
-      <c r="M100" s="300"/>
-      <c r="N100" s="301"/>
-      <c r="O100" s="302"/>
-      <c r="P100" s="303"/>
-      <c r="Q100" s="301"/>
-      <c r="R100" s="304"/>
+      <c r="D100" s="214" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="215"/>
+      <c r="F100" s="156"/>
+      <c r="G100" s="157"/>
+      <c r="H100" s="216" t="s">
+        <v>134</v>
+      </c>
+      <c r="I100" s="217" t="s">
+        <v>69</v>
+      </c>
+      <c r="J100" s="218"/>
+      <c r="K100" s="218"/>
+      <c r="L100" s="219"/>
+      <c r="M100" s="220"/>
+      <c r="N100" s="221"/>
+      <c r="O100" s="222"/>
+      <c r="P100" s="223"/>
+      <c r="Q100" s="221"/>
+      <c r="R100" s="224"/>
     </row>
     <row r="101" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="88" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="83" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E101" s="84"/>
       <c r="F101" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G101" s="114" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H101" s="51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I101" s="51" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J101" s="71"/>
       <c r="K101" s="71"/>
@@ -10755,25 +11243,25 @@
     </row>
     <row r="102" spans="1:18" s="32" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="90" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B102" s="91"/>
       <c r="C102" s="91"/>
       <c r="D102" s="92" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E102" s="93"/>
       <c r="F102" s="113" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G102" s="114" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H102" s="124" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I102" s="94" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J102" s="95"/>
       <c r="K102" s="95"/>
@@ -11002,30 +11490,30 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>24</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>21</v>
+        <v>367</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -11036,7 +11524,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -11067,7 +11555,7 @@
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -11079,13 +11567,13 @@
         <v>11</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G10" s="129" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>12</v>
@@ -11103,13 +11591,13 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N10" s="30" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P10" s="30" t="s">
         <v>6</v>
@@ -11123,267 +11611,267 @@
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="78.75">
       <c r="A11" s="139" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B11" s="140" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
       <c r="H11" s="140" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I11" s="140" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L11" s="154"/>
       <c r="M11" s="130"/>
       <c r="N11" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O11" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O11" s="238">
+        <v>43737</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="130"/>
       <c r="R11" s="130"/>
     </row>
     <row r="12" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="141" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
-      <c r="D12" s="305" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="306"/>
+      <c r="D12" s="225" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="226"/>
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
-      <c r="H12" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I12" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="310"/>
-      <c r="N12" s="310"/>
-      <c r="O12" s="311"/>
-      <c r="P12" s="310"/>
-      <c r="Q12" s="310"/>
-      <c r="R12" s="310"/>
+      <c r="H12" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="O12" s="231"/>
+      <c r="P12" s="230"/>
+      <c r="Q12" s="230"/>
+      <c r="R12" s="230"/>
     </row>
     <row r="13" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="141" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="73"/>
-      <c r="D13" s="305" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="306"/>
+      <c r="D13" s="225" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="226"/>
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I13" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="308"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="309"/>
-      <c r="M13" s="310"/>
-      <c r="N13" s="310"/>
-      <c r="O13" s="311"/>
-      <c r="P13" s="310"/>
-      <c r="Q13" s="310"/>
-      <c r="R13" s="310"/>
+      <c r="H13" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="231"/>
+      <c r="P13" s="230"/>
+      <c r="Q13" s="230"/>
+      <c r="R13" s="230"/>
     </row>
     <row r="14" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="141" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
-      <c r="D14" s="305" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="306"/>
+      <c r="D14" s="225" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="226"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="308"/>
-      <c r="K14" s="308"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="310"/>
-      <c r="N14" s="310"/>
-      <c r="O14" s="311"/>
-      <c r="P14" s="310"/>
-      <c r="Q14" s="310"/>
-      <c r="R14" s="310"/>
+      <c r="H14" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="228"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="229"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="O14" s="231"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="230"/>
+      <c r="R14" s="230"/>
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="141" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
       <c r="D15" s="143" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
       <c r="H15" s="140" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I15" s="140" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J15" s="131" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K15" s="131" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L15" s="132"/>
       <c r="M15" s="133"/>
       <c r="N15" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O15" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O15" s="238">
+        <v>43737</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q15" s="133"/>
       <c r="R15" s="133"/>
     </row>
     <row r="16" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="141" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="313" t="s">
-        <v>111</v>
+      <c r="E16" s="233" t="s">
+        <v>104</v>
       </c>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I16" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="310"/>
-      <c r="N16" s="310"/>
-      <c r="O16" s="311"/>
-      <c r="P16" s="310"/>
-      <c r="Q16" s="310"/>
-      <c r="R16" s="310"/>
+      <c r="H16" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I16" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="228"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="229"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="231"/>
+      <c r="P16" s="230"/>
+      <c r="Q16" s="230"/>
+      <c r="R16" s="230"/>
     </row>
     <row r="17" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="141" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
-      <c r="E17" s="312" t="s">
-        <v>112</v>
+      <c r="E17" s="232" t="s">
+        <v>105</v>
       </c>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I17" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="308"/>
-      <c r="K17" s="308"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="311"/>
-      <c r="P17" s="310"/>
-      <c r="Q17" s="310"/>
-      <c r="R17" s="310"/>
+      <c r="H17" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I17" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="228"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="229"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="230"/>
+      <c r="Q17" s="230"/>
+      <c r="R17" s="230"/>
     </row>
     <row r="18" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="141" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="143" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
       <c r="H18" s="140" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I18" s="140" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J18" s="131" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K18" s="131" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L18" s="132"/>
       <c r="M18" s="133"/>
       <c r="N18" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O18" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O18" s="238">
+        <v>43737</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="133"/>
       <c r="R18" s="133"/>
     </row>
     <row r="19" spans="1:18" s="32" customFormat="1" ht="56.25" customHeight="1">
       <c r="A19" s="141" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -11394,28 +11882,28 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="131" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K19" s="131" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L19" s="132"/>
       <c r="M19" s="133"/>
       <c r="N19" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O19" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O19" s="238">
+        <v>43737</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="133"/>
       <c r="R19" s="133"/>
     </row>
     <row r="20" spans="1:18" s="32" customFormat="1" ht="53.25" customHeight="1">
       <c r="A20" s="141" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -11426,28 +11914,28 @@
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
       <c r="J20" s="131" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="K20" s="131" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L20" s="132"/>
       <c r="M20" s="133"/>
       <c r="N20" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O20" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O20" s="238">
+        <v>43737</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="133"/>
       <c r="R20" s="133"/>
     </row>
     <row r="21" spans="1:18" s="32" customFormat="1" ht="68.25" customHeight="1">
       <c r="A21" s="141" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
@@ -11458,226 +11946,214 @@
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
       <c r="J21" s="131" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K21" s="131" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L21" s="132"/>
       <c r="M21" s="133"/>
       <c r="N21" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O21" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O21" s="238">
+        <v>43737</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="133"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="141" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
-      <c r="D22" s="312" t="s">
-        <v>329</v>
-      </c>
-      <c r="E22" s="313" t="s">
-        <v>113</v>
+      <c r="D22" s="232" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="233" t="s">
+        <v>106</v>
       </c>
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
-      <c r="H22" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I22" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="308"/>
-      <c r="K22" s="308"/>
-      <c r="L22" s="309"/>
-      <c r="M22" s="310"/>
-      <c r="N22" s="310"/>
-      <c r="O22" s="311"/>
-      <c r="P22" s="310"/>
-      <c r="Q22" s="310"/>
-      <c r="R22" s="310"/>
+      <c r="H22" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="228"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="229"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="230"/>
+      <c r="Q22" s="230"/>
+      <c r="R22" s="230"/>
     </row>
     <row r="23" spans="1:18" s="32" customFormat="1" ht="58.5" customHeight="1">
       <c r="A23" s="141" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
       <c r="D23" s="42" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
       <c r="H23" s="140" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I23" s="140" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J23" s="131" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K23" s="131" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L23" s="134"/>
       <c r="M23" s="135"/>
       <c r="N23" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O23" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O23" s="238">
+        <v>43737</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q23" s="135"/>
       <c r="R23" s="135"/>
     </row>
     <row r="24" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="141" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
-      <c r="D24" s="218" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="219"/>
+      <c r="D24" s="303" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="304"/>
       <c r="F24" s="125"/>
       <c r="G24" s="125"/>
       <c r="H24" s="140" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I24" s="140" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J24" s="131" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K24" s="131" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L24" s="134"/>
       <c r="M24" s="135"/>
       <c r="N24" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="O24" s="318">
-        <v>43736</v>
+        <v>350</v>
+      </c>
+      <c r="O24" s="238">
+        <v>43737</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="135"/>
       <c r="R24" s="135"/>
     </row>
     <row r="25" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="141" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B25" s="73"/>
-      <c r="C25" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="305" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="306"/>
+      <c r="C25" s="322" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="225" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="226"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I25" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="308"/>
-      <c r="K25" s="308"/>
-      <c r="L25" s="309"/>
-      <c r="M25" s="310"/>
-      <c r="N25" s="252" t="s">
-        <v>358</v>
-      </c>
-      <c r="O25" s="319">
-        <v>43736</v>
-      </c>
-      <c r="P25" s="254" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q25" s="310"/>
-      <c r="R25" s="310"/>
+      <c r="H25" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I25" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="229"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="239"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="230"/>
+      <c r="R25" s="230"/>
     </row>
     <row r="26" spans="1:18" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A26" s="141" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="305" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="306"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="225" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="226"/>
       <c r="F26" s="125"/>
       <c r="G26" s="125"/>
-      <c r="H26" s="307" t="s">
-        <v>323</v>
-      </c>
-      <c r="I26" s="307" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="308"/>
-      <c r="K26" s="308"/>
-      <c r="L26" s="309"/>
-      <c r="M26" s="310"/>
-      <c r="N26" s="252" t="s">
-        <v>358</v>
-      </c>
-      <c r="O26" s="319">
-        <v>43736</v>
-      </c>
-      <c r="P26" s="254" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q26" s="310"/>
-      <c r="R26" s="310"/>
+      <c r="H26" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="229"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="239"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="230"/>
+      <c r="R26" s="230"/>
     </row>
     <row r="27" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A27" s="141" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B27" s="140" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C27" s="144" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="128"/>
       <c r="F27" s="125" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G27" s="126" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H27" s="75" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J27" s="131"/>
       <c r="K27" s="131"/>
@@ -11691,25 +12167,25 @@
     </row>
     <row r="28" spans="1:18" s="32" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A28" s="145" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="146" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="148"/>
       <c r="F28" s="125" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G28" s="125" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H28" s="153" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I28" s="153" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J28" s="136"/>
       <c r="K28" s="136"/>
